--- a/config_Release/act_ty_ldfd_config.xlsx
+++ b/config_Release/act_ty_ldfd_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="info|时间" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>line</t>
   </si>
@@ -29,13 +29,7 @@
     <t>beginTime</t>
   </si>
   <si>
-    <t>1621296000</t>
-  </si>
-  <si>
     <t>endTime</t>
-  </si>
-  <si>
-    <t>1621871999</t>
   </si>
   <si>
     <t>show_condiy_key</t>
@@ -50,10 +44,10 @@
     <t>task_id|任务id</t>
   </si>
   <si>
-    <t>gift_ids|物品的id</t>
+    <t>gift_ids|      shoppingp config礼包id</t>
   </si>
   <si>
-    <t>10544,10545,10546,10547,10548,10549,10550</t>
+    <t>10571,10572,10573,10574,10575,10576,10577</t>
   </si>
 </sst>
 </file>
@@ -61,10 +55,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -109,6 +103,21 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,9 +129,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,6 +153,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,77 +173,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,13 +222,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,13 +342,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,67 +366,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,60 +390,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -397,12 +397,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,17 +449,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -483,9 +466,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,21 +513,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -527,151 +521,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -998,7 +995,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1028,34 +1025,28 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1"/>
+      <c r="C2" s="1">
+        <v>1623110400</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1623686399</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1063,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1082,7 +1073,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1097,16 +1088,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1116,12 +1107,11 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2"/>
-      <c r="D2">
-        <v>1000613</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
+      <c r="D2" s="1">
+        <v>1000653</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/act_ty_ldfd_config.xlsx
+++ b/config_Release/act_ty_ldfd_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>line</t>
   </si>
@@ -56,11 +56,81 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>actp_buy_gift_class_hqjnh_046_cjj_hllb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10577,10576,10575,10574,10573,10572,10571</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ctp_own_task_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p_hljnh_046_hlfl_nor</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1630339199,1629129599</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1627948800,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1628553600</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"actp_buy_gift_class_hqjnh_046_cjj_hllb","actp_own_task_p_hljnh_046_hlfl_nor"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10614,10615,10616,10617,10618,10619,10620</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -129,6 +199,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,14 +481,14 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="77.375" customWidth="1"/>
   </cols>
@@ -427,7 +500,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -438,8 +511,8 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>1627948800</v>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -450,8 +523,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>1630339199</v>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -461,8 +534,8 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -472,23 +545,23 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -529,11 +602,28 @@
         <v>1000653</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E3" s="4"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1000733</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_Release/act_ty_ldfd_config.xlsx
+++ b/config_Release/act_ty_ldfd_config.xlsx
@@ -105,32 +105,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1630339199,1629129599</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1627948800,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1628553600</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"actp_buy_gift_class_hqjnh_046_cjj_hllb","actp_own_task_p_hljnh_046_hlfl_nor"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10614,10615,10616,10617,10618,10619,10620</t>
+    <t>1632787200,1632787200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1633967999,1633967999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10620,10619,10618,10617,10616,10615,10614</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +468,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -524,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -535,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -561,7 +548,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
